--- a/src/resources/testdata/myAccountTestData.xlsx
+++ b/src/resources/testdata/myAccountTestData.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login-data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="change-password-data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="billing-address-data" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="shipping-address-data" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="wishlist-data" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -62,6 +63,18 @@
   </si>
   <si>
     <t xml:space="preserve">110001abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wimpy Kid Do -It- Yourself Book</t>
   </si>
 </sst>
 </file>
@@ -71,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,6 +113,12 @@
       <name val="Consolas"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,6 +173,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,7 +263,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -284,7 +307,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -328,27 +351,27 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -370,32 +393,72 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
